--- a/site1/data/tour_data.xlsx
+++ b/site1/data/tour_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webpython\site1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005AADA9-8EF3-4AF5-B71B-3914517FB46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE41958-2DC9-4525-B2BB-5B053EC7DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="303">
   <si>
     <t>destination</t>
   </si>
@@ -631,48 +631,6 @@
     <t>Lịch trình 4 ngày tham quan và trải nghiệm tại London - Anh.</t>
   </si>
   <si>
-    <t>https://source.unsplash.com/800x600/?travel,Hội_An</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Đà_Nẵng</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Pleiku</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Hà_Nội</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Quy_Nhơn</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Sapa</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Đà_Lạt</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Phú_Quốc</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Vũng_Tàu</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Mộc_Châu</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Nha_Trang</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Huế</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Hạ_Long</t>
-  </si>
-  <si>
-    <t>https://source.unsplash.com/800x600/?travel,Buôn_Ma_Thuột</t>
-  </si>
-  <si>
     <t>https://hoianfilm.com/wp-content/uploads/2019/09/chup-anh-gia-dinh-hoi-an3-1.jpg</t>
   </si>
   <si>
@@ -848,6 +806,129 @@
   </si>
   <si>
     <t>https://cdn-imgix.headout.com/media/images/b3e8e97abf6b3107496c83361d76445a-21914-tokyo-tokyo-disneysea-ticket--05.jpg?w=1302&amp;h=813.75&amp;crop=faces&amp;auto=compress%2Cformat&amp;fit=min</t>
+  </si>
+  <si>
+    <t>https://toplist.vn/images/800px/hoi-an-644266.jpg</t>
+  </si>
+  <si>
+    <t>https://deih43ym53wif.cloudfront.net/pleiku-vietnam-chu-dang-ya-volcano-shutterstock_1572039112_e0abd8399e.jpeg</t>
+  </si>
+  <si>
+    <t>https://pix8.agoda.net/hotelImages/463342/-1/93600dc19553bcaa7803ab55c1fb9735.jpg?ca=0&amp;ce=1&amp;s=800x600</t>
+  </si>
+  <si>
+    <t>https://toplist.vn/images/800px/sapa-1145688.jpg</t>
+  </si>
+  <si>
+    <t>https://tse3.mm.bing.net/th/id/OIP.WxDJoDq9ITYNXcPaBeYllgHaEK?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://tse4.mm.bing.net/th/id/OIP.eiFSzbL7MUBTcWBTZNw1jwHaEx?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://tse2.mm.bing.net/th/id/OIP.qdkRmJKukawdzwgXssQuVQHaE8?cb=12ucfimg=1&amp;w=900&amp;h=600&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://cdn.thecrazytourist.com/wp-content/uploads/2018/08/ccimage-shutterstock_635672729.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/view-mang-lang-catholic-church-ancient-village-phu-yen-province-vietnam-travel-landscape-concept_991182-21057.jpg</t>
+  </si>
+  <si>
+    <t>https://tse3.mm.bing.net/th/id/OIP.10DUck_XWQdXqKMe3Z3TfQAAAA?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/672259184/photo/beautiful-sunrise-in-thien-phuc-duc-hill.jpg?s=170667a&amp;w=0&amp;k=20&amp;c=1vDq1ULuPrTk2FaC9QXj4F3cS3IGpjivhDjuaFeBmCk=</t>
+  </si>
+  <si>
+    <t>https://tse1.mm.bing.net/th/id/OIP.SSSmqwHIKqtkb_H_rmeQIQHaE7?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://tse1.mm.bing.net/th/id/OIP.-Qx5xq2xZSNmTav4rkqqrAHaFj?cb=12&amp;pid=ImgDet&amp;ucfimg=1&amp;w=474&amp;h=355&amp;rs=1&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.abfb1e6e05a95cdb64a91304b6e00318?rik=g%2fWcDDGh08Y%2bEg&amp;riu=http%3a%2f%2fdiscoveryourvietnam.com%2fwp-content%2fuploads%2f2022%2f10%2fQuy_Nhon_Feature_Image_Discover_your_Vietnam_Vietnam_Travel_Agency_Things_to_do_in_Quy_Nhon-1-1.jpg&amp;ehk=SNBdf1rpJkr8wlENGm2tyLhnp6kTgDUw5tC6%2bF%2brHos%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>https://tse3.mm.bing.net/th/id/OIP.kYCwER-dVQDOYYM-Ali__AHaE7?cb=12ucfimg=1&amp;w=1200&amp;h=799&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://thvnext.bing.com/th/id/OIP.dwKpczlBnZq-rbwh7d10CQHaFW?o=7&amp;cb=12rm=3&amp;ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://st4.depositphotos.com/1030327/30915/i/450/depositphotos_309159728-stock-photo-wonderful-evening-view-of-the.jpg</t>
+  </si>
+  <si>
+    <t>https://tse2.mm.bing.net/th/id/OIP.AnOn3f6C2hjobwiIwXmADwHaEK?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://tse4.mm.bing.net/th/id/OIP.D9PaVU4DNJG7E5g_fAwhxwHaFj?cb=12ucfimg=1&amp;w=1200&amp;h=900&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.66072aeff27352183eeeed6ee7a4ef4b?rik=tyutEsvDZWDIPA&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>https://image.kkday.com/v2/image/get/h_650%2Cc_fit/s1.kkday.com/product_18976/20180207034143_cn1Re/jpg</t>
+  </si>
+  <si>
+    <t>https://toplist.vn/images/800px/moc-chau-637394.jpg</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/hue-imperial-city_1067133-26.jpg</t>
+  </si>
+  <si>
+    <t>https://vietnam.travel/sites/default/files/styles/article_photo_large/public/2019-04/Dalat%20Vietnam%20Travel%20Guide-8.jpg?itok=IvlkaB3v</t>
+  </si>
+  <si>
+    <t>https://tse4.mm.bing.net/th/id/OIP.3og3T85HYhUKGaDKxTm9xgHaEa?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://tse2.mm.bing.net/th/id/OIP.6MAsOf4NGrvHW5gjGaW9QgHaE7?cb=12ucfimg=1&amp;w=626&amp;h=417&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://biditravel.com/wp-content/uploads/2022/10/thanh-pho-bien-quy-nhon-960x1149.jpeg</t>
+  </si>
+  <si>
+    <t>https://thvnext.bing.com/th/id/OIP.8FOhmXrrSyxa5E8nQiyntwHaFj?o=7&amp;cb=12rm=3&amp;ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://tse2.mm.bing.net/th/id/OIP.2FlyLirqcL1mmJZ43mTj9gHaE8?cb=12ucfimg=1&amp;w=816&amp;h=544&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://tse4.mm.bing.net/th/id/OIP.Ffp4eOhZ8aRPW61KpbDCkgHaEN?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://tse1.mm.bing.net/th/id/OIP.IMJuOybJbhS8XMWGLhtyegHaEZ?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://dynamic-media-cdn.tripadvisor.com/media/photo-o/26/84/aa/3b/bi-n-h-pleiku.jpg?w=1200&amp;h=-1&amp;s=1</t>
+  </si>
+  <si>
+    <t>https://reviewvilla.vn/wp-content/uploads/2021/12/bun-quay-phu-quoc-9.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/44/00/cd/4400cd8356fa0f983a5e9f04ba92c265.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/dbrr53QACX8/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://toplist.vn/images/800px/sa-pa-12696.jpg</t>
+  </si>
+  <si>
+    <t>https://static.vinwonders.com/production/ho-tay-o-dau-5.jpg</t>
+  </si>
+  <si>
+    <t>https://tse1.mm.bing.net/th/id/OIP.zUPjVIrC4pApg7m1R8z1ugHaDt?cb=12ucfimg=1&amp;rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3</t>
+  </si>
+  <si>
+    <t>https://cattour.vn/images/upload/images/buon-me-thuot/kinh-nghiem-du-lich/com-lam.jpg</t>
+  </si>
+  <si>
+    <t>https://booking.pystravel.vn/uploads/posts/avatar/1685025607.jpeg</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.f9b841235f8232f80e13b5f58041bb55?rik=TAFrOoQ0hcexEQ&amp;riu=http%3a%2f%2freviewvilla.vn%2fwp-content%2fuploads%2f2022%2f05%2fam-thuc-Sapa-13.jpg&amp;ehk=aABVkydk%2bwL%2fJZyI2ujUHyjW%2fsYPbs9Fz1S8FG%2fVQ38%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1366,7 @@
         <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1308,7 +1389,7 @@
         <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1331,7 +1412,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1354,7 +1435,7 @@
         <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1377,7 +1458,7 @@
         <v>135</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1400,7 +1481,7 @@
         <v>136</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1423,7 +1504,7 @@
         <v>137</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1446,7 +1527,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1469,7 +1550,7 @@
         <v>139</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1492,7 +1573,7 @@
         <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1515,7 +1596,7 @@
         <v>141</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1538,7 +1619,7 @@
         <v>142</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1561,7 +1642,7 @@
         <v>143</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1584,7 +1665,7 @@
         <v>144</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1607,7 +1688,7 @@
         <v>145</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1630,7 +1711,7 @@
         <v>146</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1653,7 +1734,7 @@
         <v>147</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1676,7 +1757,7 @@
         <v>137</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1699,7 +1780,7 @@
         <v>148</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1722,7 +1803,7 @@
         <v>142</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1745,7 +1826,7 @@
         <v>149</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1768,7 +1849,7 @@
         <v>148</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1791,7 +1872,7 @@
         <v>138</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1814,7 +1895,7 @@
         <v>137</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1837,7 +1918,7 @@
         <v>138</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1860,7 +1941,7 @@
         <v>148</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -1883,7 +1964,7 @@
         <v>150</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -1906,7 +1987,7 @@
         <v>151</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -1929,7 +2010,7 @@
         <v>151</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1952,7 +2033,7 @@
         <v>133</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -1975,7 +2056,7 @@
         <v>145</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1998,7 +2079,7 @@
         <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2021,7 +2102,7 @@
         <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -2044,7 +2125,7 @@
         <v>141</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -2067,7 +2148,7 @@
         <v>154</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -2090,7 +2171,7 @@
         <v>155</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -2113,7 +2194,7 @@
         <v>139</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -2136,7 +2217,7 @@
         <v>156</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2159,7 +2240,7 @@
         <v>157</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2182,7 +2263,7 @@
         <v>158</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2205,7 +2286,7 @@
         <v>159</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2228,7 +2309,7 @@
         <v>135</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -2251,7 +2332,7 @@
         <v>160</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2274,7 +2355,7 @@
         <v>149</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2297,7 +2378,7 @@
         <v>161</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2320,7 +2401,7 @@
         <v>151</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2343,7 +2424,7 @@
         <v>162</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -2366,7 +2447,7 @@
         <v>160</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -2389,7 +2470,7 @@
         <v>163</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2412,7 +2493,7 @@
         <v>164</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -2435,7 +2516,7 @@
         <v>143</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -2458,7 +2539,7 @@
         <v>147</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -2481,7 +2562,7 @@
         <v>165</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2504,7 +2585,7 @@
         <v>166</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -2527,7 +2608,7 @@
         <v>167</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -2550,7 +2631,7 @@
         <v>144</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -2573,7 +2654,7 @@
         <v>163</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -2596,7 +2677,7 @@
         <v>168</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2619,7 +2700,7 @@
         <v>169</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2642,7 +2723,7 @@
         <v>170</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -2665,7 +2746,7 @@
         <v>171</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -2688,7 +2769,7 @@
         <v>172</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2711,7 +2792,7 @@
         <v>173</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -2734,7 +2815,7 @@
         <v>174</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -2757,7 +2838,7 @@
         <v>175</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -2780,7 +2861,7 @@
         <v>176</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -2803,7 +2884,7 @@
         <v>177</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -2826,7 +2907,7 @@
         <v>178</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -2849,7 +2930,7 @@
         <v>176</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -2872,7 +2953,7 @@
         <v>179</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -2895,7 +2976,7 @@
         <v>180</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -2918,7 +2999,7 @@
         <v>181</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -2941,7 +3022,7 @@
         <v>182</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -2964,7 +3045,7 @@
         <v>183</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -2987,7 +3068,7 @@
         <v>184</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -3010,7 +3091,7 @@
         <v>175</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -3033,7 +3114,7 @@
         <v>185</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -3056,7 +3137,7 @@
         <v>180</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -3079,7 +3160,7 @@
         <v>171</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -3102,7 +3183,7 @@
         <v>186</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3125,7 +3206,7 @@
         <v>187</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -3148,7 +3229,7 @@
         <v>188</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -3171,7 +3252,7 @@
         <v>189</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -3194,7 +3275,7 @@
         <v>190</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -3217,7 +3298,7 @@
         <v>191</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -3240,7 +3321,7 @@
         <v>172</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -3263,7 +3344,7 @@
         <v>192</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
@@ -3286,7 +3367,7 @@
         <v>184</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -3309,7 +3390,7 @@
         <v>177</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -3332,7 +3413,7 @@
         <v>193</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -3355,7 +3436,7 @@
         <v>194</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
@@ -3378,7 +3459,7 @@
         <v>195</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -3401,7 +3482,7 @@
         <v>196</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
@@ -3424,7 +3505,7 @@
         <v>197</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -3447,7 +3528,7 @@
         <v>198</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
@@ -3470,7 +3551,7 @@
         <v>199</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -3493,7 +3574,7 @@
         <v>200</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
@@ -3516,7 +3597,7 @@
         <v>196</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -3539,7 +3620,7 @@
         <v>201</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -3562,7 +3643,7 @@
         <v>202</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -3603,7 +3684,7 @@
     <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F35" r:id="rId34" display="https://th.bing.com/th/id/R.abfb1e6e05a95cdb64a91304b6e00318?rik=g%2fWcDDGh08Y%2bEg&amp;riu=http%3a%2f%2fdiscoveryourvietnam.com%2fwp-content%2fuploads%2f2022%2f10%2fQuy_Nhon_Feature_Image_Discover_your_Vietnam_Vietnam_Travel_Agency_Things_to_do_in_Quy_Nhon-1-1.jpg&amp;ehk=SNBdf1rpJkr8wlENGm2tyLhnp6kTgDUw5tC6%2bF%2brHos%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>

--- a/site1/data/tour_data.xlsx
+++ b/site1/data/tour_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webpython\site1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE41958-2DC9-4525-B2BB-5B053EC7DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15945BF-5A16-4026-A958-15170F63FC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,7 +998,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1007,7 +1007,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1316,14 +1315,14 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1356,7 +1355,7 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>9279683</v>
       </c>
       <c r="D2" t="s">
@@ -1379,7 +1378,7 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>5570762</v>
       </c>
       <c r="D3" t="s">
@@ -1402,7 +1401,7 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>4980894</v>
       </c>
       <c r="D4" t="s">
@@ -1425,7 +1424,7 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>11437390</v>
       </c>
       <c r="D5" t="s">
@@ -1448,7 +1447,7 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>4724548</v>
       </c>
       <c r="D6" t="s">
@@ -1471,7 +1470,7 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>9934906</v>
       </c>
       <c r="D7" t="s">
@@ -1494,7 +1493,7 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>8139989</v>
       </c>
       <c r="D8" t="s">
@@ -1517,7 +1516,7 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>4348170</v>
       </c>
       <c r="D9" t="s">
@@ -1540,7 +1539,7 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>7496834</v>
       </c>
       <c r="D10" t="s">
@@ -1563,7 +1562,7 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>10145668</v>
       </c>
       <c r="D11" t="s">
@@ -1586,7 +1585,7 @@
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>5030811</v>
       </c>
       <c r="D12" t="s">
@@ -1609,7 +1608,7 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>6961622</v>
       </c>
       <c r="D13" t="s">
@@ -1632,7 +1631,7 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>6363766</v>
       </c>
       <c r="D14" t="s">
@@ -1655,7 +1654,7 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>9706462</v>
       </c>
       <c r="D15" t="s">
@@ -1678,7 +1677,7 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>5726628</v>
       </c>
       <c r="D16" t="s">
@@ -1701,7 +1700,7 @@
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>11021636</v>
       </c>
       <c r="D17" t="s">
@@ -1724,7 +1723,7 @@
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>9073210</v>
       </c>
       <c r="D18" t="s">
@@ -1747,7 +1746,7 @@
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>5230199</v>
       </c>
       <c r="D19" t="s">
@@ -1770,7 +1769,7 @@
       <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>9494662</v>
       </c>
       <c r="D20" t="s">
@@ -1793,7 +1792,7 @@
       <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>4152091</v>
       </c>
       <c r="D21" t="s">
@@ -1816,7 +1815,7 @@
       <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>4291331</v>
       </c>
       <c r="D22" t="s">
@@ -1839,7 +1838,7 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>7031437</v>
       </c>
       <c r="D23" t="s">
@@ -1862,7 +1861,7 @@
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>7438514</v>
       </c>
       <c r="D24" t="s">
@@ -1885,7 +1884,7 @@
       <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>10780667</v>
       </c>
       <c r="D25" t="s">
@@ -1908,7 +1907,7 @@
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>3021718</v>
       </c>
       <c r="D26" t="s">
@@ -1931,7 +1930,7 @@
       <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>7116953</v>
       </c>
       <c r="D27" t="s">
@@ -1954,7 +1953,7 @@
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>7314139</v>
       </c>
       <c r="D28" t="s">
@@ -1977,7 +1976,7 @@
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>8263634</v>
       </c>
       <c r="D29" t="s">
@@ -2000,7 +1999,7 @@
       <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>3462292</v>
       </c>
       <c r="D30" t="s">
@@ -2023,7 +2022,7 @@
       <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>10241138</v>
       </c>
       <c r="D31" t="s">
@@ -2046,7 +2045,7 @@
       <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>4177439</v>
       </c>
       <c r="D32" t="s">
@@ -2069,7 +2068,7 @@
       <c r="B33" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>3573896</v>
       </c>
       <c r="D33" t="s">
@@ -2092,7 +2091,7 @@
       <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>5608487</v>
       </c>
       <c r="D34" t="s">
@@ -2115,7 +2114,7 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35">
         <v>9412324</v>
       </c>
       <c r="D35" t="s">
@@ -2138,7 +2137,7 @@
       <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <v>7665375</v>
       </c>
       <c r="D36" t="s">
@@ -2161,7 +2160,7 @@
       <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>8597159</v>
       </c>
       <c r="D37" t="s">
@@ -2184,7 +2183,7 @@
       <c r="B38" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>5436662</v>
       </c>
       <c r="D38" t="s">
@@ -2207,7 +2206,7 @@
       <c r="B39" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>3483297</v>
       </c>
       <c r="D39" t="s">
@@ -2230,7 +2229,7 @@
       <c r="B40" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <v>8681083</v>
       </c>
       <c r="D40" t="s">
@@ -2253,7 +2252,7 @@
       <c r="B41" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>6723027</v>
       </c>
       <c r="D41" t="s">
@@ -2276,7 +2275,7 @@
       <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42">
         <v>6880422</v>
       </c>
       <c r="D42" t="s">
@@ -2299,7 +2298,7 @@
       <c r="B43" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>3539161</v>
       </c>
       <c r="D43" t="s">
@@ -2322,7 +2321,7 @@
       <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44">
         <v>9141563</v>
       </c>
       <c r="D44" t="s">
@@ -2345,7 +2344,7 @@
       <c r="B45" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>3297166</v>
       </c>
       <c r="D45" t="s">
@@ -2368,7 +2367,7 @@
       <c r="B46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46">
         <v>9274375</v>
       </c>
       <c r="D46" t="s">
@@ -2391,7 +2390,7 @@
       <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>6063643</v>
       </c>
       <c r="D47" t="s">
@@ -2414,7 +2413,7 @@
       <c r="B48" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>4230788</v>
       </c>
       <c r="D48" t="s">
@@ -2437,7 +2436,7 @@
       <c r="B49" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49">
         <v>9286834</v>
       </c>
       <c r="D49" t="s">
@@ -2460,7 +2459,7 @@
       <c r="B50" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50">
         <v>8394141</v>
       </c>
       <c r="D50" t="s">
@@ -2483,7 +2482,7 @@
       <c r="B51" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51">
         <v>5371765</v>
       </c>
       <c r="D51" t="s">
@@ -2506,7 +2505,7 @@
       <c r="B52" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>10616005</v>
       </c>
       <c r="D52" t="s">
@@ -2529,7 +2528,7 @@
       <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53">
         <v>9790024</v>
       </c>
       <c r="D53" t="s">
@@ -2552,7 +2551,7 @@
       <c r="B54" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54">
         <v>10949431</v>
       </c>
       <c r="D54" t="s">
@@ -2575,7 +2574,7 @@
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55">
         <v>9108283</v>
       </c>
       <c r="D55" t="s">
@@ -2598,7 +2597,7 @@
       <c r="B56" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56">
         <v>9254111</v>
       </c>
       <c r="D56" t="s">
@@ -2621,7 +2620,7 @@
       <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57">
         <v>5811556</v>
       </c>
       <c r="D57" t="s">
@@ -2644,7 +2643,7 @@
       <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58">
         <v>3805307</v>
       </c>
       <c r="D58" t="s">
@@ -2667,7 +2666,7 @@
       <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59">
         <v>5249081</v>
       </c>
       <c r="D59" t="s">
@@ -2690,7 +2689,7 @@
       <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60">
         <v>4253337</v>
       </c>
       <c r="D60" t="s">
@@ -2713,7 +2712,7 @@
       <c r="B61" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61">
         <v>5407081</v>
       </c>
       <c r="D61" t="s">
@@ -2736,7 +2735,7 @@
       <c r="B62" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62">
         <v>20413745</v>
       </c>
       <c r="D62" t="s">
@@ -2759,7 +2758,7 @@
       <c r="B63" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63">
         <v>16332644</v>
       </c>
       <c r="D63" t="s">
@@ -2782,7 +2781,7 @@
       <c r="B64" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64">
         <v>14805150</v>
       </c>
       <c r="D64" t="s">
@@ -2805,7 +2804,7 @@
       <c r="B65" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65">
         <v>41221796</v>
       </c>
       <c r="D65" t="s">
@@ -2828,7 +2827,7 @@
       <c r="B66" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66">
         <v>20117903</v>
       </c>
       <c r="D66" t="s">
@@ -2851,7 +2850,7 @@
       <c r="B67" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67">
         <v>26052835</v>
       </c>
       <c r="D67" t="s">
@@ -2874,7 +2873,7 @@
       <c r="B68" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68">
         <v>12702399</v>
       </c>
       <c r="D68" t="s">
@@ -2897,7 +2896,7 @@
       <c r="B69" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69">
         <v>33733145</v>
       </c>
       <c r="D69" t="s">
@@ -2920,7 +2919,7 @@
       <c r="B70" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70">
         <v>37891227</v>
       </c>
       <c r="D70" t="s">
@@ -2943,7 +2942,7 @@
       <c r="B71" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71">
         <v>47153413</v>
       </c>
       <c r="D71" t="s">
@@ -2966,7 +2965,7 @@
       <c r="B72" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72">
         <v>16440384</v>
       </c>
       <c r="D72" t="s">
@@ -2989,7 +2988,7 @@
       <c r="B73" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73">
         <v>22996446</v>
       </c>
       <c r="D73" t="s">
@@ -3012,7 +3011,7 @@
       <c r="B74" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74">
         <v>43527381</v>
       </c>
       <c r="D74" t="s">
@@ -3035,7 +3034,7 @@
       <c r="B75" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75">
         <v>12857727</v>
       </c>
       <c r="D75" t="s">
@@ -3058,7 +3057,7 @@
       <c r="B76" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76">
         <v>17501601</v>
       </c>
       <c r="D76" t="s">
@@ -3081,7 +3080,7 @@
       <c r="B77" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77">
         <v>46402341</v>
       </c>
       <c r="D77" t="s">
@@ -3104,7 +3103,7 @@
       <c r="B78" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78">
         <v>25168521</v>
       </c>
       <c r="D78" t="s">
@@ -3127,7 +3126,7 @@
       <c r="B79" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79">
         <v>35565495</v>
       </c>
       <c r="D79" t="s">
@@ -3150,7 +3149,7 @@
       <c r="B80" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80">
         <v>28059088</v>
       </c>
       <c r="D80" t="s">
@@ -3173,7 +3172,7 @@
       <c r="B81" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81">
         <v>26497209</v>
       </c>
       <c r="D81" t="s">
@@ -3196,7 +3195,7 @@
       <c r="B82" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82">
         <v>24660568</v>
       </c>
       <c r="D82" t="s">
@@ -3219,7 +3218,7 @@
       <c r="B83" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83">
         <v>21587743</v>
       </c>
       <c r="D83" t="s">
@@ -3242,7 +3241,7 @@
       <c r="B84" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84">
         <v>33275483</v>
       </c>
       <c r="D84" t="s">
@@ -3265,7 +3264,7 @@
       <c r="B85" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85">
         <v>17935768</v>
       </c>
       <c r="D85" t="s">
@@ -3288,7 +3287,7 @@
       <c r="B86" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86">
         <v>29259582</v>
       </c>
       <c r="D86" t="s">
@@ -3311,7 +3310,7 @@
       <c r="B87" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87">
         <v>33871974</v>
       </c>
       <c r="D87" t="s">
@@ -3334,7 +3333,7 @@
       <c r="B88" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88">
         <v>41710678</v>
       </c>
       <c r="D88" t="s">
@@ -3357,7 +3356,7 @@
       <c r="B89" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89">
         <v>44705524</v>
       </c>
       <c r="D89" t="s">
@@ -3380,7 +3379,7 @@
       <c r="B90" t="s">
         <v>113</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90">
         <v>35583175</v>
       </c>
       <c r="D90" t="s">
@@ -3403,7 +3402,7 @@
       <c r="B91" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91">
         <v>42134635</v>
       </c>
       <c r="D91" t="s">
@@ -3426,7 +3425,7 @@
       <c r="B92" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92">
         <v>42299396</v>
       </c>
       <c r="D92" t="s">
@@ -3449,7 +3448,7 @@
       <c r="B93" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93">
         <v>36734244</v>
       </c>
       <c r="D93" t="s">
@@ -3472,7 +3471,7 @@
       <c r="B94" t="s">
         <v>117</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94">
         <v>36596723</v>
       </c>
       <c r="D94" t="s">
@@ -3495,7 +3494,7 @@
       <c r="B95" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95">
         <v>21542043</v>
       </c>
       <c r="D95" t="s">
@@ -3518,7 +3517,7 @@
       <c r="B96" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96">
         <v>25300609</v>
       </c>
       <c r="D96" t="s">
@@ -3541,7 +3540,7 @@
       <c r="B97" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97">
         <v>36418459</v>
       </c>
       <c r="D97" t="s">
@@ -3564,7 +3563,7 @@
       <c r="B98" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98">
         <v>48823209</v>
       </c>
       <c r="D98" t="s">
@@ -3587,7 +3586,7 @@
       <c r="B99" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99">
         <v>13027521</v>
       </c>
       <c r="D99" t="s">
@@ -3610,7 +3609,7 @@
       <c r="B100" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100">
         <v>12069788</v>
       </c>
       <c r="D100" t="s">
@@ -3633,7 +3632,7 @@
       <c r="B101" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101">
         <v>34762894</v>
       </c>
       <c r="D101" t="s">
@@ -3753,5 +3752,6 @@
     <hyperlink ref="F83" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>
--- a/site1/data/tour_data.xlsx
+++ b/site1/data/tour_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webpython\site1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15945BF-5A16-4026-A958-15170F63FC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05860FA-3A19-4F7A-8F4E-FC425D53E7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33975" yWindow="1455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="306">
   <si>
     <t>destination</t>
   </si>
@@ -929,6 +929,15 @@
   </si>
   <si>
     <t>https://th.bing.com/th/id/R.f9b841235f8232f80e13b5f58041bb55?rik=TAFrOoQ0hcexEQ&amp;riu=http%3a%2f%2freviewvilla.vn%2fwp-content%2fuploads%2f2022%2f05%2fam-thuc-Sapa-13.jpg&amp;ehk=aABVkydk%2bwL%2fJZyI2ujUHyjW%2fsYPbs9Fz1S8FG%2fVQ38%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Trongnuoc</t>
+  </si>
+  <si>
+    <t>Ngoainuoc</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1334,7 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,8 +1356,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1370,8 +1382,11 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1393,8 +1408,11 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1416,8 +1434,11 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1439,8 +1460,11 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1462,8 +1486,11 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1485,8 +1512,11 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1508,8 +1538,11 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1531,8 +1564,11 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1554,8 +1590,11 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1577,8 +1616,11 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1600,8 +1642,11 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1623,8 +1668,11 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1646,8 +1694,11 @@
       <c r="G14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1669,8 +1720,11 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1692,8 +1746,11 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1715,8 +1772,11 @@
       <c r="G17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1738,8 +1798,11 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1761,8 +1824,11 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1784,8 +1850,11 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1807,8 +1876,11 @@
       <c r="G21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1830,8 +1902,11 @@
       <c r="G22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1853,8 +1928,11 @@
       <c r="G23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1876,8 +1954,11 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1899,8 +1980,11 @@
       <c r="G25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1922,8 +2006,11 @@
       <c r="G26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1945,8 +2032,11 @@
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1968,8 +2058,11 @@
       <c r="G28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1991,8 +2084,11 @@
       <c r="G29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2014,8 +2110,11 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2037,8 +2136,11 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2060,8 +2162,11 @@
       <c r="G32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2083,8 +2188,11 @@
       <c r="G33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2106,8 +2214,11 @@
       <c r="G34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2129,8 +2240,11 @@
       <c r="G35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2152,8 +2266,11 @@
       <c r="G36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2175,8 +2292,11 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2198,8 +2318,11 @@
       <c r="G38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2221,8 +2344,11 @@
       <c r="G39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2244,8 +2370,11 @@
       <c r="G40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2267,8 +2396,11 @@
       <c r="G41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2290,8 +2422,11 @@
       <c r="G42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2313,8 +2448,11 @@
       <c r="G43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2336,8 +2474,11 @@
       <c r="G44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2359,8 +2500,11 @@
       <c r="G45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2382,8 +2526,11 @@
       <c r="G46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2405,8 +2552,11 @@
       <c r="G47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2428,8 +2578,11 @@
       <c r="G48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2451,8 +2604,11 @@
       <c r="G49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2474,8 +2630,11 @@
       <c r="G50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2497,8 +2656,11 @@
       <c r="G51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2520,8 +2682,11 @@
       <c r="G52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2543,8 +2708,11 @@
       <c r="G53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2566,8 +2734,11 @@
       <c r="G54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2589,8 +2760,11 @@
       <c r="G55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2612,8 +2786,11 @@
       <c r="G56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2635,8 +2812,11 @@
       <c r="G57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2838,11 @@
       <c r="G58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2681,8 +2864,11 @@
       <c r="G59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -2704,8 +2890,11 @@
       <c r="G60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2727,8 +2916,11 @@
       <c r="G61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -2750,8 +2942,11 @@
       <c r="G62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -2773,8 +2968,11 @@
       <c r="G63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -2796,8 +2994,11 @@
       <c r="G64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -2819,8 +3020,11 @@
       <c r="G65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2842,8 +3046,11 @@
       <c r="G66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -2865,8 +3072,11 @@
       <c r="G67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -2888,8 +3098,11 @@
       <c r="G68" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2911,8 +3124,11 @@
       <c r="G69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -2934,8 +3150,11 @@
       <c r="G70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -2957,8 +3176,11 @@
       <c r="G71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -2980,8 +3202,11 @@
       <c r="G72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -3003,8 +3228,11 @@
       <c r="G73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -3026,8 +3254,11 @@
       <c r="G74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -3049,8 +3280,11 @@
       <c r="G75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -3072,8 +3306,11 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -3095,8 +3332,11 @@
       <c r="G77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -3118,8 +3358,11 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -3141,8 +3384,11 @@
       <c r="G79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -3164,8 +3410,11 @@
       <c r="G80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -3187,8 +3436,11 @@
       <c r="G81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3210,8 +3462,11 @@
       <c r="G82" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -3233,8 +3488,11 @@
       <c r="G83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -3256,8 +3514,11 @@
       <c r="G84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -3279,8 +3540,11 @@
       <c r="G85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -3302,8 +3566,11 @@
       <c r="G86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -3325,8 +3592,11 @@
       <c r="G87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -3348,8 +3618,11 @@
       <c r="G88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -3371,8 +3644,11 @@
       <c r="G89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -3394,8 +3670,11 @@
       <c r="G90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -3417,8 +3696,11 @@
       <c r="G91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -3440,8 +3722,11 @@
       <c r="G92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -3463,8 +3748,11 @@
       <c r="G93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -3486,8 +3774,11 @@
       <c r="G94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -3509,8 +3800,11 @@
       <c r="G95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -3532,8 +3826,11 @@
       <c r="G96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -3555,8 +3852,11 @@
       <c r="G97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -3578,8 +3878,11 @@
       <c r="G98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -3601,8 +3904,11 @@
       <c r="G99" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -3624,8 +3930,11 @@
       <c r="G100" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -3646,6 +3955,9 @@
       </c>
       <c r="G101" t="b">
         <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
